--- a/biology/Botanique/Georg_Ludwig_Hartig/Georg_Ludwig_Hartig.xlsx
+++ b/biology/Botanique/Georg_Ludwig_Hartig/Georg_Ludwig_Hartig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Georg Ludwig Hartig (né le 2 septembre 1764 à Gladenbach, près de Marbourg – mort à Berlin le 2 février 1837) est un agronome allemand réputé pour ses travaux de sylviculture.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie sommaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après une formation professionnelle en agriculture à Harzburg, Hartig étudia à l’Université de Giessen de 1781 à 1783. En 1786 il fut engagé comme intendant des forêts du prince de Solms-Braunfels à Hungen en Vettéravie, où il ouvrit une école de sylviculture.
 En 1791, il publie son fameux ouvrage Instruction sur la culture du bois, à l'usage des forestiers qui décrit la méthode de « repeuplement naturel »  comme une suite de « coupes dites éclaircissements » , suivie d'une «coupe déﬁnitive». Cet ouvrage est traduit par Jacques-Joseph Baudrillart en 1805 puis largement diffusé au sein de l'Administration forestière française. Cette méthode correspond actuellement à celle de la régénération naturelle par coupes progressives.
@@ -546,13 +560,15 @@
           <t>Œuvres (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">G. L. Hartig (trad. J.-J. Baudrillart), Instruction sur la culture du bois, à l'usage des forestiers [« Anweisung zur Holzzucht für Förster »], Paris, Levrault, Schœll &amp; Cie, 1791 (réimpr. 2e éd. en français 1805) (lire en ligne)[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">G. L. Hartig (trad. J.-J. Baudrillart), Instruction sur la culture du bois, à l'usage des forestiers [« Anweisung zur Holzzucht für Förster »], Paris, Levrault, Schœll &amp; Cie, 1791 (réimpr. 2e éd. en français 1805) (lire en ligne)
 Physicalische Versuche über das Verhältniß der Brennbarkeit der meisten deutschen Wald-Baum-Hölzer...etc, 1794
-Anweisung zur Taxation und Beschreibung der Forste (Instructions sur la fiscalité et la description de la forêt ou traité d'aménagement forestier), Gießen, 1795[1]
+Anweisung zur Taxation und Beschreibung der Forste (Instructions sur la fiscalité et la description de la forêt ou traité d'aménagement forestier), Gießen, 1795
 Grundsätze der Forst-Direktion, Hadamer : Neue Gelehrten Buchhandlung, 1803
-Lehrbuch für Förster und die es werden wollen (Livre pour l'instruction des forestiers et de ceux qui veulent le devenir), (3 vols.), Stuttgart, 1808[1]
+Lehrbuch für Förster und die es werden wollen (Livre pour l'instruction des forestiers et de ceux qui veulent le devenir), (3 vols.), Stuttgart, 1808
 Kubiktabellen für geschnittene, beschlagene und runde Hölzer, 1815 (10th ed. Berlin, 1871)
 Lehrbuch für Jäger und die es werden wollen...etc., (2 vols.), Stuttgart 1810/1812
 Beitrag zur Lehre von der Ablösung der Holz-, Streu- und Weideservituten, Berlin, 1829
@@ -587,7 +603,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> (en) « Georg Ludwig Hartig », dans Encyclopædia Britannica [détail de l’édition], 1911 (lire sur Wikisource).
 </t>
